--- a/assesments/Sophie Contributions Summary.xlsx
+++ b/assesments/Sophie Contributions Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophieporter/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20919CA3-2556-7447-9DE2-DF0250A501AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C50725-667C-C74E-9E30-497F335C449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{2C0029F1-931C-FB40-B057-6910B2A1CD93}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Contributions Assessed by:</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>a1DDDDDDD</t>
-  </si>
-  <si>
     <t>Contribution grades should be entered as one of the following</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>Iteration 4</t>
   </si>
   <si>
-    <t>j1 blogggs</t>
-  </si>
-  <si>
     <t>a1770751</t>
   </si>
   <si>
@@ -128,13 +122,52 @@
   </si>
   <si>
     <t>Group 5</t>
+  </si>
+  <si>
+    <t>Sophie Porter</t>
+  </si>
+  <si>
+    <t>Scrum Master, Add Candidate user story and GUI drawing</t>
+  </si>
+  <si>
+    <t>Scrum Developer, Vote Above and Below Line user story and GUI drawing</t>
+  </si>
+  <si>
+    <t>Remove Candidate user story and GUI drawing. Away, communicated over messenger</t>
+  </si>
+  <si>
+    <t>Worked on creating the database, created cucumber and rspec tests for Add Candidate</t>
+  </si>
+  <si>
+    <t>Worked on creating the database, created cucumber and rspec tests for Vote Above and Below Line</t>
+  </si>
+  <si>
+    <t>Created cucumber and rspec tests for Remove Candidate</t>
+  </si>
+  <si>
+    <t>Edited add candidate user story and GUI story, started implementing add candidate</t>
+  </si>
+  <si>
+    <t>Edited add candidate user story and GUI story, started implementing the voting system</t>
+  </si>
+  <si>
+    <t>Continued implementing add candidate and edit candidate, worked on styling the site</t>
+  </si>
+  <si>
+    <t>Worked on updating and improving testing</t>
+  </si>
+  <si>
+    <t>Continued implementing the voting system, implemented remove candidate, worked on styling the website</t>
+  </si>
+  <si>
+    <t>Worked on updating and improving testing and including things in git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +179,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,6 +273,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +591,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -580,12 +621,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -605,33 +646,45 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -641,7 +694,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -658,41 +711,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="str">
-        <f>A6</f>
+        <f t="shared" ref="A12:B14" si="0">A6</f>
         <v>a1770751</v>
       </c>
       <c r="B12" s="9" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>Mitch</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>a1810750</v>
       </c>
       <c r="B13" s="9" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>Sarah</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="str">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>a1780903</v>
       </c>
       <c r="B14" s="9" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>Sophie</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -702,7 +767,7 @@
     </row>
     <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -719,41 +784,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="str">
-        <f>A12</f>
+        <f t="shared" ref="A18:B20" si="1">A12</f>
         <v>a1770751</v>
       </c>
       <c r="B18" s="9" t="str">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>Mitch</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="str">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>a1810750</v>
       </c>
       <c r="B19" s="9" t="str">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>Sarah</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="str">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>a1780903</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>Sophie</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
@@ -763,7 +840,7 @@
     </row>
     <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -780,90 +857,102 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="str">
-        <f>A18</f>
+        <f t="shared" ref="A24:B26" si="2">A18</f>
         <v>a1770751</v>
       </c>
       <c r="B24" s="9" t="str">
-        <f>B18</f>
+        <f t="shared" si="2"/>
         <v>Mitch</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="str">
-        <f>A19</f>
+        <f t="shared" si="2"/>
         <v>a1810750</v>
       </c>
       <c r="B25" s="9" t="str">
-        <f>B19</f>
+        <f t="shared" si="2"/>
         <v>Sarah</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="str">
-        <f>A20</f>
+        <f t="shared" si="2"/>
         <v>a1780903</v>
       </c>
       <c r="B26" s="9" t="str">
-        <f>B20</f>
+        <f t="shared" si="2"/>
         <v>Sophie</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="12">
         <v>0</v>
